--- a/xlsx/艾恩电视台_intext.xlsx
+++ b/xlsx/艾恩电视台_intext.xlsx
@@ -29,13 +29,13 @@
     <t>United States</t>
   </si>
   <si>
-    <t>政策_政策_美國_艾恩电视台</t>
+    <t>政策_政策_美国_艾恩电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>廣告標語</t>
+    <t>广告标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/720p</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9D%A2%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>地面電視</t>
+    <t>地面电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86%E8%81%94%E6%92%AD%E7%BD%91</t>
@@ -59,43 +59,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視網</t>
+    <t>电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國廣播公司</t>
+    <t>美国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBS%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CBS電視網</t>
+    <t>CBS电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>國家廣播公司</t>
+    <t>国家广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>福斯廣播公司</t>
+    <t>福斯广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CW%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CW電視網</t>
+    <t>CW电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/America_One</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/AMG%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>AMG電視網</t>
+    <t>AMG电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Channel_America</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%AD%90%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>離子電視網</t>
+    <t>离子电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/My_Family_TV</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%B3%B6%E9%9B%BB%E8%A6%96%E5%8F%B0%E8%8B%B1%E8%AA%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>半島電視台英語頻道</t>
+    <t>半岛电视台英语频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Local_AccuWeather_Channel</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%A3%A1%E9%83%8E%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>阿裡郎電視網</t>
+    <t>阿里郎电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Asia_Vision_(TV_network)</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>德國之聲</t>
+    <t>德国之声</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ImaginAsian</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%B4%BE%E6%8B%89%E8%92%99%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>聯合派拉蒙電視網</t>
+    <t>联合派拉蒙电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WB%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>WB電視網</t>
+    <t>WB电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/American_Independent_Network</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>第一電視網</t>
+    <t>第一电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NTA_Film_Network</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>有線電視</t>
+    <t>有线电视</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/America%27s_Store</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E5%AE%B6%E8%B3%BC%E7%89%A9%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>居家購物電視網</t>
+    <t>居家购物电视网</t>
   </si>
 </sst>
 </file>
